--- a/experiment/nonconvex/MitsosBarton2006Ex314/compare/M-Estacionario/MitsosBarton2006Ex314_M-Estacionario.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/compare/M-Estacionario/MitsosBarton2006Ex314_M-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>-6.496162470767628</v>
       </c>
       <c r="E2">
-        <v>0.0092583</v>
+        <v>0.0109145</v>
       </c>
       <c r="F2">
-        <v>0.0165448</v>
+        <v>0.0345749</v>
       </c>
       <c r="G2">
-        <v>0.011455416589861751</v>
+        <v>0.02129611379310345</v>
       </c>
       <c r="H2">
         <v>2907</v>
